--- a/pred_ohlcv/54_21/2020-01-16 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 MXC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-3274314.891855069</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3057493.891855069</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3053422.343655069</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3553422.343655069</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4410878.422855069</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1164568.542555069</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-854831.9559550688</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-900860.8619550688</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-906715.8244550688</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-866715.8244550688</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-904768.8244550688</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-357396.8222550688</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>6015603.177744932</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>27191897.02584493</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>26515044.18054493</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>27016874.48137931</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>26931355.75897931</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>26931355.75897931</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>28307706.02167932</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>26794002.69187932</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>27100724.83337932</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>26816605.34197932</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>26816605.34197932</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>26815276.28667932</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 MXC ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-2894400.343655069</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3053422.343655069</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3553422.343655069</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4410878.422855069</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-951917.4425550688</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1164568.542555069</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-854831.9559550688</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-900860.8619550688</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-906715.8244550688</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-866715.8244550688</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-904768.8244550688</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-813095.8244550688</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-357396.8222550688</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-317396.8222550688</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>6015603.177744932</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>27191897.02584493</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>27121376.98054493</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>26515044.18054493</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>27016874.48137931</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>26931355.75897931</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>26931355.75897931</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>27177339.75897931</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>28590003.04137931</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>28576337.62387931</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>28554493.30377932</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>28557170.39087931</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>28264985.02167932</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>28307706.02167932</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>28307706.02167932</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>26701825.83207932</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>26796664.62837932</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>26794002.69187932</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>27100724.83337932</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>27129442.23217932</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>26816605.34197932</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>26816605.34197932</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>26815276.28667932</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>26998057.70697932</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
